--- a/Discharge/RatingCurves/Station05_RatingCure.xlsx
+++ b/Discharge/RatingCurves/Station05_RatingCure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/Ecuador2022/Discharge/RatingCurves/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B1B6F59-F10A-1545-B9DD-0B7FAAF3ABF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8CEE2E-8C76-2B41-801B-F67E24736499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22000" yWindow="4300" windowWidth="26440" windowHeight="15440" xr2:uid="{DBD77D10-ADCC-9342-922B-7E01B46E8CBF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Date</t>
   </si>
@@ -53,19 +53,28 @@
   </si>
   <si>
     <t>Station 05</t>
+  </si>
+  <si>
+    <t>missing data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Sans"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -88,10 +97,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,20 +416,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67D623C-2653-7747-9984-1D8B99BF7CA5}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -436,7 +446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>44740</v>
       </c>
@@ -446,11 +456,15 @@
       <c r="C3" s="2">
         <v>0.55208333333333337</v>
       </c>
+      <c r="D3" s="3"/>
       <c r="E3">
         <v>0.10291500000000001</v>
       </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>44768</v>
       </c>
@@ -459,6 +473,9 @@
       </c>
       <c r="C4" s="2">
         <v>0.4375</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.55452369999999995</v>
       </c>
       <c r="E4">
         <v>6.018999999999998E-2</v>
